--- a/myESC-Particle-DEV/saves/tr_header.xlsx
+++ b/myESC-Particle-DEV/saves/tr_header.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>cl</t>
   </si>
@@ -42,19 +42,7 @@
     <t>thr</t>
   </si>
   <si>
-    <t>pcntrefM</t>
-  </si>
-  <si>
     <t>pcntSenseM</t>
-  </si>
-  <si>
-    <t>errM</t>
-  </si>
-  <si>
-    <t>stateM</t>
-  </si>
-  <si>
-    <t>thrM</t>
   </si>
   <si>
     <t>modPcng</t>
@@ -870,18 +858,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O1"/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K12" sqref="K12"/>
+      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="11.44140625" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" customWidth="1"/>
+    <col min="7" max="7" width="5.6640625" customWidth="1"/>
+    <col min="10" max="10" width="9.88671875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -896,34 +890,22 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
       </c>
       <c r="J1" t="s">
         <v>8</v>
       </c>
       <c r="K1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" t="s">
         <v>10</v>
-      </c>
-      <c r="M1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/myESC-Particle-DEV/saves/tr_header.xlsx
+++ b/myESC-Particle-DEV/saves/tr_header.xlsx
@@ -14,16 +14,13 @@
   <sheets>
     <sheet name="tr_header" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
-    <t>cl</t>
-  </si>
-  <si>
     <t>vpot</t>
   </si>
   <si>
@@ -52,6 +49,9 @@
   </si>
   <si>
     <t>T</t>
+  </si>
+  <si>
+    <t>mode</t>
   </si>
 </sst>
 </file>
@@ -862,7 +862,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -875,37 +875,37 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
         <v>9</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/myESC-Particle-DEV/saves/tr_header.xlsx
+++ b/myESC-Particle-DEV/saves/tr_header.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dave\Documents\GitHub\ESC\myESC-Particle-DEV\saves\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19656" windowHeight="8388"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="19650" windowHeight="8385"/>
   </bookViews>
   <sheets>
     <sheet name="tr_header" sheetId="1" r:id="rId1"/>
@@ -850,7 +845,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -862,15 +857,15 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="11.44140625" customWidth="1"/>
-    <col min="6" max="6" width="13.5546875" customWidth="1"/>
-    <col min="7" max="7" width="5.6640625" customWidth="1"/>
-    <col min="10" max="10" width="9.88671875" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" customWidth="1"/>
+    <col min="7" max="7" width="5.7109375" customWidth="1"/>
+    <col min="10" max="10" width="9.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
